--- a/idea/IV_Y test.xlsx
+++ b/idea/IV_Y test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github_graduate\Valkyrie\idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\github graduate\Valkyrie\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F541D88-642A-483A-84F6-5024FFF3675A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFA1E7F-B455-4890-9AFA-AC7F593763E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="4728" windowWidth="13092" windowHeight="9912" xr2:uid="{5EA92C63-6A95-45A9-AE51-2DBBE1E96D9B}"/>
+    <workbookView xWindow="8208" yWindow="0" windowWidth="15360" windowHeight="16824" xr2:uid="{1E02E09D-A3DC-4853-B490-5BB99BBF8D66}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -506,7 +508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76EE8D7-3BF4-48F3-8AD2-77A7F1AB992F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD1BED5-501B-4845-ABCB-E9E89D3090E3}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -791,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D411320F-C171-4A19-B731-E99E7B9E3A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39437EF-177B-4A68-AC89-8F712A522C8E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -923,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE6B2A8-C42C-4BF1-88F3-A2EAD4BF0C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190803BD-6161-42B3-B282-427650D51C6A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
